--- a/unittestdata/reelsstats2.xlsx
+++ b/unittestdata/reelsstats2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>symbol</t>
   </si>
@@ -46,6 +46,9 @@
     <t>BM</t>
   </si>
   <si>
+    <t>BM2</t>
+  </si>
+  <si>
     <t>BL</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>RM</t>
   </si>
   <si>
+    <t>RM2</t>
+  </si>
+  <si>
     <t>RL</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
   </si>
   <si>
     <t>GM</t>
+  </si>
+  <si>
+    <t>GM2</t>
   </si>
   <si>
     <t>GL</t>
@@ -94,12 +103,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -112,16 +127,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -138,10 +153,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -161,6 +176,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -360,17 +376,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -398,10 +414,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -649,12 +665,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -941,7 +957,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -969,10 +985,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1226,7 +1242,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1345,25 +1361,25 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H5" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
@@ -1371,25 +1387,25 @@
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H6" s="3">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
@@ -1397,25 +1413,25 @@
         <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
@@ -1423,25 +1439,25 @@
         <v>14</v>
       </c>
       <c r="B8" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G8" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H8" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
@@ -1449,25 +1465,25 @@
         <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
@@ -1475,25 +1491,25 @@
         <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F10" s="3">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G10" s="3">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
@@ -1501,25 +1517,25 @@
         <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H11" s="3">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
@@ -1527,24 +1543,102 @@
         <v>18</v>
       </c>
       <c r="B12" s="3">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3">
+        <v>36</v>
+      </c>
+      <c r="G12" s="3">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3">
+        <v>36</v>
+      </c>
+      <c r="G13" s="3">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3">
+        <v>48</v>
+      </c>
+      <c r="F14" s="3">
+        <v>48</v>
+      </c>
+      <c r="G14" s="3">
+        <v>48</v>
+      </c>
+      <c r="H14" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H15" s="3">
         <v>1</v>
       </c>
     </row>

--- a/unittestdata/reelsstats2.xlsx
+++ b/unittestdata/reelsstats2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -37,46 +37,28 @@
     <t>reel7</t>
   </si>
   <si>
-    <t>WL</t>
+    <t>SC</t>
   </si>
   <si>
-    <t>BH</t>
+    <t>A</t>
   </si>
   <si>
-    <t>BM</t>
+    <t>B</t>
   </si>
   <si>
-    <t>BM2</t>
+    <t>C</t>
   </si>
   <si>
-    <t>BL</t>
+    <t>D</t>
   </si>
   <si>
-    <t>RH</t>
+    <t>E</t>
   </si>
   <si>
-    <t>RM</t>
+    <t>F</t>
   </si>
   <si>
-    <t>RM2</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>GH</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>GM2</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>SC</t>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -117,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,13 +122,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -157,6 +176,15 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1242,7 +1270,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1292,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -1312,22 +1340,22 @@
         <v>24</v>
       </c>
       <c r="C3" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
         <v>24</v>
       </c>
       <c r="E3" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>24</v>
       </c>
       <c r="H3" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -1335,25 +1363,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
@@ -1361,25 +1389,25 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
@@ -1387,25 +1415,25 @@
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
@@ -1413,22 +1441,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <v>24</v>
       </c>
       <c r="E7" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <v>24</v>
       </c>
       <c r="G7" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>24</v>
@@ -1439,25 +1467,25 @@
         <v>14</v>
       </c>
       <c r="B8" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
@@ -1465,182 +1493,36 @@
         <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G9" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3">
-        <v>48</v>
-      </c>
-      <c r="C10" s="3">
-        <v>48</v>
-      </c>
-      <c r="D10" s="3">
-        <v>48</v>
-      </c>
-      <c r="E10" s="3">
-        <v>48</v>
-      </c>
-      <c r="F10" s="3">
-        <v>48</v>
-      </c>
-      <c r="G10" s="3">
-        <v>48</v>
-      </c>
-      <c r="H10" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3">
-        <v>24</v>
-      </c>
-      <c r="G11" s="3">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3">
-        <v>36</v>
-      </c>
-      <c r="F12" s="3">
-        <v>36</v>
-      </c>
-      <c r="G12" s="3">
-        <v>36</v>
-      </c>
-      <c r="H12" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3">
-        <v>36</v>
-      </c>
-      <c r="E13" s="3">
-        <v>36</v>
-      </c>
-      <c r="F13" s="3">
-        <v>36</v>
-      </c>
-      <c r="G13" s="3">
-        <v>36</v>
-      </c>
-      <c r="H13" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3">
-        <v>48</v>
-      </c>
-      <c r="D14" s="3">
-        <v>48</v>
-      </c>
-      <c r="E14" s="3">
-        <v>48</v>
-      </c>
-      <c r="F14" s="3">
-        <v>48</v>
-      </c>
-      <c r="G14" s="3">
-        <v>48</v>
-      </c>
-      <c r="H14" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
